--- a/SCOPE_v1.73/input_data_ec_cab_lai.xlsx
+++ b/SCOPE_v1.73/input_data_ec_cab_lai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharm_projects\SCOPE-CvT\SCOPE_v1.73\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EB746C-9E50-4DAB-A82D-2B5531781D0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19118B8D-75BA-4F11-9FF9-9247667B8B1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="383">
   <si>
     <t>Cab</t>
   </si>
@@ -1244,39 +1244,12 @@
     <t>TIMESTAMP_START as YYYYMMDDHHMM or YYYYMMDD will  be converted automatically to doy and filtered to startDOY, endDOY from 'inputdata' sheet</t>
   </si>
   <si>
-    <t>TIMESTAMP_START</t>
-  </si>
-  <si>
-    <t>SW_IN_F</t>
-  </si>
-  <si>
-    <t>LW_IN_F</t>
-  </si>
-  <si>
-    <t>WS_F</t>
-  </si>
-  <si>
-    <t>TA_F</t>
-  </si>
-  <si>
     <t>RH</t>
   </si>
   <si>
-    <t>CO2_F_MDS</t>
-  </si>
-  <si>
-    <t>SWC_F_MDS_1</t>
-  </si>
-  <si>
-    <t>ec_file_berkeley</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
-    <t>PA_F</t>
-  </si>
-  <si>
     <t>units</t>
   </si>
   <si>
@@ -1319,12 +1292,6 @@
     <t>missing values are -9999, NA or N/A</t>
   </si>
   <si>
-    <t>interpolation_csv</t>
-  </si>
-  <si>
-    <t>values from `interpolation_csv` will be linearly interpolated to timestamp (t) of ec_file_berkeley</t>
-  </si>
-  <si>
     <t>BSM</t>
   </si>
   <si>
@@ -1346,7 +1313,44 @@
     <t>verification_dir</t>
   </si>
   <si>
-    <t>Variables below are COLUMN NAMES in time_series_files (ec_file_berkeley, interpolation_csv)</t>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <r>
+      <t>output folder to which compare the timeseires run if</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> options.verify == 1</t>
+    </r>
+  </si>
+  <si>
+    <t>if not present - calculated from t, timezn, LAT, LON</t>
+  </si>
+  <si>
+    <t>only for ea calculations</t>
+  </si>
+  <si>
+    <t>[OPTIONAL] if provided - optional parameters (below) will be taken from this file else - from ec_file_berkeley</t>
+  </si>
+  <si>
+    <t>timestamp start YYYYMMDD[HHMMSS]</t>
+  </si>
+  <si>
+    <t>timestamp end YYYYMMDD[HHMMSS]</t>
+  </si>
+  <si>
+    <t>meteo_ec_csv</t>
+  </si>
+  <si>
+    <t>vegetation_retrieved_csv</t>
   </si>
   <si>
     <r>
@@ -1382,7 +1386,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{ec_file_berkeley}</t>
+      <t>{meteo_ec_csv}</t>
     </r>
     <r>
       <rPr>
@@ -1396,53 +1400,46 @@
     </r>
   </si>
   <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>overrides ec_file_berkeley value</t>
-  </si>
-  <si>
-    <r>
-      <t>output folder to which compare the timeseires run if</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> options.verify == 1</t>
-    </r>
-  </si>
-  <si>
-    <t>if not present - calculated from t, timezn, LAT, LON</t>
-  </si>
-  <si>
-    <t>only for ea calculations</t>
-  </si>
-  <si>
-    <t>[OPTIONAL] if provided - optional parameters (below) will be taken from this file else - from ec_file_berkeley</t>
+    <t>values from `vegetation_retrieved_csv` will be linearly interpolated to timestamp (t) of meteo_ec_csv</t>
+  </si>
+  <si>
+    <t>Variables below are COLUMN NAMES in time_series_files (meteo_ec_csv, vegetation_retrieved_csv)</t>
   </si>
   <si>
     <t>ec_berkeley.csv</t>
   </si>
   <si>
-    <t>timestamp start YYYYMMDD[HHMMSS]</t>
-  </si>
-  <si>
-    <t>timestamp end YYYYMMDD[HHMMSS]</t>
-  </si>
-  <si>
-    <t>verification_run_ec</t>
+    <t>TIMESTAMP_START</t>
+  </si>
+  <si>
+    <t>SW_IN_F</t>
+  </si>
+  <si>
+    <t>LW_IN_F</t>
+  </si>
+  <si>
+    <t>PA_F</t>
+  </si>
+  <si>
+    <t>TA_F</t>
+  </si>
+  <si>
+    <t>WS_F</t>
+  </si>
+  <si>
+    <t>SWC_F_MDS_1</t>
+  </si>
+  <si>
+    <t>CO2_F_MDS</t>
   </si>
   <si>
     <t>cab</t>
   </si>
   <si>
     <t>lai</t>
+  </si>
+  <si>
+    <t>verification_run_ec_cab_lai</t>
   </si>
   <si>
     <t>verificationdata_ec_cab_lai</t>
@@ -3560,8 +3557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:DV58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3590,7 +3587,7 @@
         <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -3631,43 +3628,43 @@
         <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D11" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="B12" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D12" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="E12" s="50"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D14" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -3675,24 +3672,24 @@
         <v>369</v>
       </c>
       <c r="D16" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="E16" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F16" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B17" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="E17" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="F17" t="s">
         <v>334</v>
@@ -3703,13 +3700,13 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="D18" t="s">
         <v>172</v>
       </c>
       <c r="E18" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -3717,13 +3714,13 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="D19" t="s">
         <v>172</v>
       </c>
       <c r="E19" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -3731,10 +3728,10 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="D20" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E20" t="s">
         <v>178</v>
@@ -3745,10 +3742,10 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
+        <v>375</v>
+      </c>
+      <c r="D21" t="s">
         <v>339</v>
-      </c>
-      <c r="D21" t="s">
-        <v>348</v>
       </c>
       <c r="E21" t="s">
         <v>175</v>
@@ -3759,13 +3756,13 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="D22" t="s">
         <v>180</v>
       </c>
       <c r="E22" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -3776,27 +3773,27 @@
         <v>177</v>
       </c>
       <c r="E23" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F23" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>335</v>
+      </c>
+      <c r="B24" t="s">
+        <v>335</v>
+      </c>
+      <c r="D24" t="s">
         <v>340</v>
       </c>
-      <c r="B24" t="s">
-        <v>340</v>
-      </c>
-      <c r="D24" t="s">
-        <v>349</v>
-      </c>
       <c r="E24" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="F24" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -3810,7 +3807,7 @@
         <v>202</v>
       </c>
       <c r="F26" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -3820,7 +3817,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -3828,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D30" t="s">
         <v>136</v>
@@ -3905,7 +3902,7 @@
     </row>
     <row r="38" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A38" s="50" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" spans="1:126" x14ac:dyDescent="0.3">
@@ -3913,17 +3910,15 @@
         <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="D39" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E39" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="50" t="s">
-        <v>372</v>
-      </c>
+      <c r="F39" s="50"/>
       <c r="AA39" s="4"/>
       <c r="AZ39" s="4"/>
       <c r="BY39" s="4"/>
@@ -3969,13 +3964,14 @@
       <c r="A44" s="51" t="s">
         <v>3</v>
       </c>
+      <c r="B44"/>
     </row>
     <row r="45" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>382</v>
+      <c r="B45" t="s">
+        <v>380</v>
       </c>
       <c r="D45" t="s">
         <v>165</v>
@@ -4127,7 +4123,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="50" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -4138,7 +4134,7 @@
         <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -4146,7 +4142,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="D52" t="s">
         <v>182</v>
@@ -4154,13 +4150,11 @@
       <c r="E52" t="s">
         <v>183</v>
       </c>
-      <c r="F52" s="50" t="s">
-        <v>372</v>
-      </c>
+      <c r="F52" s="50"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="50" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -4171,12 +4165,12 @@
         <v>148</v>
       </c>
       <c r="E55" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="50" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -4195,8 +4189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:DV89"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5264,11 +5258,11 @@
       <c r="A80" t="s">
         <v>52</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B80">
         <v>2017123118</v>
       </c>
       <c r="I80" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="AB80" s="9"/>
     </row>
@@ -5280,7 +5274,7 @@
         <v>2018010110</v>
       </c>
       <c r="I81" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="AB81" s="9"/>
     </row>
